--- a/src/test/java/TestCaseFile/SauceDemoTestCases.xlsx
+++ b/src/test/java/TestCaseFile/SauceDemoTestCases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SeleniumAutomation\src\test\java\TestCaseFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB914B7-6FEF-436B-BB00-7D7166642877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD32469-8A55-44D6-9633-15E5FD82D0E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>Test Case Number</t>
   </si>
@@ -189,6 +189,36 @@
   </si>
   <si>
     <t>1. All the dropdown like Name (A to Z), Name (Z to A), Price (low to high) &amp; Price (high to low) should be present here.</t>
+  </si>
+  <si>
+    <t>TC_005</t>
+  </si>
+  <si>
+    <t>PlaceOrder</t>
+  </si>
+  <si>
+    <t>Add a product to the cart and place order successfully</t>
+  </si>
+  <si>
+    <t>1. Add a product to cart
+2. Goto Cart
+3. Validate if added product is present in cart
+4. Click on checkout
+5. Add First, Last Name and ZipCode in Your Informaion page
+6. Click on Continue
+7. Verify Product details and First, Last Name and ZipCode on Description page
+8. Click on Finish
+9. Verify Thankyou page msg
+10. Click on Back Home button
+11. Verify if user is on home page</t>
+  </si>
+  <si>
+    <t>1. User should be able to add product in cart
+2. Expected product should be added in Cart
+2. User should be able to add details in Your Information page
+3. On Description page Added details should reflect
+4. Verify Thankyou page msg
+5. Verify if user landed on home page</t>
   </si>
 </sst>
 </file>
@@ -567,9 +597,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -713,13 +743,25 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+    <row r="6" spans="1:10" s="6" customFormat="1" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
